--- a/samples/Benchmarking_Integer_Compression.xlsx
+++ b/samples/Benchmarking_Integer_Compression.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28680" windowHeight="17120" tabRatio="500" activeTab="1"/>
@@ -270,8 +270,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -287,9 +288,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'2.4GHz CPU'!$C$1:$K$1</c:f>
@@ -361,7 +360,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -377,9 +375,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'2.4GHz CPU'!$C$1:$K$1</c:f>
@@ -451,7 +447,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -467,9 +462,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'2.4GHz CPU'!$C$1:$K$1</c:f>
@@ -541,7 +534,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -557,9 +549,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'2.4GHz CPU'!$C$1:$K$1</c:f>
@@ -631,7 +621,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -647,9 +636,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'2.4GHz CPU'!$C$1:$K$1</c:f>
@@ -721,7 +708,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -731,13 +717,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2086026376"/>
-        <c:axId val="2086029432"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="2102257880"/>
+        <c:axId val="2078598680"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2086026376"/>
+        <c:axId val="2102257880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,7 +731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086029432"/>
+        <c:crossAx val="2078598680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -754,7 +739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086029432"/>
+        <c:axId val="2078598680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086026376"/>
+        <c:crossAx val="2102257880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -855,8 +840,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -872,9 +858,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'2.4GHz CPU'!$C$1:$K$1</c:f>
@@ -946,7 +930,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -962,9 +945,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'2.4GHz CPU'!$C$1:$K$1</c:f>
@@ -1036,7 +1017,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1052,9 +1032,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'2.4GHz CPU'!$C$1:$K$1</c:f>
@@ -1126,7 +1104,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1142,9 +1119,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'2.4GHz CPU'!$C$1:$K$1</c:f>
@@ -1216,7 +1191,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1232,9 +1206,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'2.4GHz CPU'!$C$1:$K$1</c:f>
@@ -1306,7 +1278,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1316,13 +1287,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2086106328"/>
-        <c:axId val="2086109352"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="2114478792"/>
+        <c:axId val="2114481848"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2086106328"/>
+        <c:axId val="2114478792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086109352"/>
+        <c:crossAx val="2114481848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1339,7 +1309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086109352"/>
+        <c:axId val="2114481848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086106328"/>
+        <c:crossAx val="2114478792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1439,8 +1409,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1456,9 +1427,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'2.4GHz CPU'!$C$1:$K$1</c:f>
@@ -1530,7 +1499,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1546,9 +1514,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'2.4GHz CPU'!$C$1:$K$1</c:f>
@@ -1620,7 +1586,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1636,9 +1601,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'2.4GHz CPU'!$C$1:$K$1</c:f>
@@ -1710,7 +1673,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1726,9 +1688,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'2.4GHz CPU'!$C$1:$K$1</c:f>
@@ -1800,7 +1760,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1816,9 +1775,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'2.4GHz CPU'!$C$1:$K$1</c:f>
@@ -1890,7 +1847,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1900,13 +1856,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2086150568"/>
-        <c:axId val="2086153592"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="2114526568"/>
+        <c:axId val="2114529624"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2086150568"/>
+        <c:axId val="2114526568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,7 +1870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086153592"/>
+        <c:crossAx val="2114529624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1923,7 +1878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086153592"/>
+        <c:axId val="2114529624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,7 +1920,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086150568"/>
+        <c:crossAx val="2114526568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
